--- a/data/materiales.xlsx
+++ b/data/materiales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royer\Documents\ProyectoFinalModelado\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6766D938-D58E-4312-ABA6-02128B18C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82F4AE2-9B04-45F2-9F69-044E647FE82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AE63697A-3A1A-4F0C-B0F8-EC677A01DD11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
   <si>
     <t xml:space="preserve">Tipo </t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t xml:space="preserve">Puro </t>
+  </si>
+  <si>
+    <t>Material</t>
   </si>
 </sst>
 </file>
@@ -686,9 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E49211-0A15-4068-97D3-19E7D6A7EF0D}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -701,7 +702,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
